--- a/Tijdelijke map documenten/MoSCoW Planning.xlsx
+++ b/Tijdelijke map documenten/MoSCoW Planning.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_GoBack" localSheetId="0">Sheet1!$A$26</definedName>
+  </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Taak</t>
   </si>
@@ -142,15 +145,34 @@
   </si>
   <si>
     <t>besturing tests uitvoeren</t>
+  </si>
+  <si>
+    <t>wasmachine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Het uitvoeren van verschillende was programma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Logs bijhouden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Noodknop.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -254,6 +276,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -307,126 +337,129 @@
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -827,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1199,82 +1232,90 @@
       <c r="L24" s="19"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
+      <c r="A25" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
       <c r="I25" s="7"/>
       <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="9" t="s">
-        <v>40</v>
+      <c r="A26" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C26" s="33"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
       <c r="I26" s="7"/>
       <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="A27" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
       <c r="I27" s="7"/>
       <c r="K27" s="15"/>
       <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="9" t="s">
-        <v>19</v>
+      <c r="A28" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="33"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="4"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
       <c r="I29" s="7"/>
       <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="5"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
       <c r="I30" s="7"/>
       <c r="L30" s="28"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="5"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
       <c r="I31" s="7"/>
       <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="5"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:12">

--- a/Tijdelijke map documenten/MoSCoW Planning.xlsx
+++ b/Tijdelijke map documenten/MoSCoW Planning.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-15" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_GoBack" localSheetId="0">Sheet1!$A$26</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -141,31 +141,38 @@
     <t>gebruiker is niet verplicht deze mogelijkheid te gebruiken</t>
   </si>
   <si>
-    <t>Na klikken van kleinen knop op hoofd scherm</t>
-  </si>
-  <si>
     <t>besturing tests uitvoeren</t>
   </si>
   <si>
     <t>wasmachine</t>
   </si>
   <si>
-    <t xml:space="preserve">     Het uitvoeren van verschillende was programma.</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Logs bijhouden.</t>
   </si>
   <si>
     <t xml:space="preserve">    Noodknop.</t>
+  </si>
+  <si>
+    <t>Na klikken van kleine knop op hoofd scherm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Het uitvoeren van verschillende was programma's.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -337,162 +344,163 @@
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="63">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -524,7 +532,7 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -857,14 +865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.875" customWidth="1"/>
     <col min="2" max="2" width="49.625" customWidth="1"/>
@@ -878,7 +886,7 @@
     <col min="17" max="17" width="61.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25">
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +913,7 @@
       <c r="L1" s="28"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -916,7 +924,7 @@
       <c r="H2" s="10"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -929,7 +937,7 @@
       <c r="I3" s="7"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -941,7 +949,7 @@
       <c r="I4" s="7"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -952,7 +960,7 @@
       <c r="H5" s="10"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -967,7 +975,7 @@
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
@@ -982,7 +990,7 @@
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -996,7 +1004,7 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="27"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
@@ -1009,7 +1017,7 @@
       <c r="P9" s="20"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1031,7 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -1037,7 +1045,7 @@
       <c r="P11" s="20"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
@@ -1054,7 +1062,7 @@
       <c r="P12" s="21"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1069,7 +1077,7 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="20"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>21</v>
       </c>
@@ -1085,7 +1093,7 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
@@ -1102,7 +1110,7 @@
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>27</v>
       </c>
@@ -1119,7 +1127,7 @@
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>23</v>
       </c>
@@ -1136,7 +1144,7 @@
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>24</v>
       </c>
@@ -1153,7 +1161,7 @@
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>30</v>
       </c>
@@ -1168,7 +1176,7 @@
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>31</v>
       </c>
@@ -1180,7 +1188,7 @@
       <c r="H20" s="6"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>32</v>
       </c>
@@ -1191,12 +1199,12 @@
       <c r="I21" s="7"/>
       <c r="L21" s="19"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="33"/>
@@ -1205,7 +1213,7 @@
       <c r="I22" s="7"/>
       <c r="L22" s="19"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>34</v>
       </c>
@@ -1219,7 +1227,7 @@
       <c r="I23" s="7"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>35</v>
       </c>
@@ -1231,9 +1239,9 @@
       <c r="H24" s="6"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
@@ -1242,9 +1250,9 @@
       <c r="I25" s="7"/>
       <c r="L25" s="29"/>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="34" t="s">
-        <v>42</v>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="36"/>
@@ -1253,9 +1261,9 @@
       <c r="I26" s="7"/>
       <c r="L26" s="29"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="33"/>
@@ -1265,9 +1273,9 @@
       <c r="K27" s="15"/>
       <c r="L27" s="29"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="36"/>
@@ -1275,7 +1283,7 @@
       <c r="F28" s="36"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>17</v>
       </c>
@@ -1286,9 +1294,9 @@
       <c r="I29" s="7"/>
       <c r="L29" s="28"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="32"/>
@@ -1297,7 +1305,7 @@
       <c r="I30" s="7"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1316,7 @@
       <c r="I31" s="7"/>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>19</v>
       </c>
@@ -1318,7 +1326,7 @@
       <c r="F32" s="32"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -1327,14 +1335,14 @@
       <c r="I33" s="7"/>
       <c r="L33" s="29"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -1342,14 +1350,14 @@
       <c r="I35" s="7"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -1357,7 +1365,7 @@
       <c r="I37" s="7"/>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -1366,7 +1374,7 @@
       <c r="I38" s="7"/>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -1374,7 +1382,7 @@
       <c r="F39" s="19"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -1382,7 +1390,7 @@
       <c r="F40" s="19"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -1391,7 +1399,7 @@
       <c r="I41" s="7"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -1400,7 +1408,7 @@
       <c r="I42" s="7"/>
       <c r="L42" s="29"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -1409,7 +1417,7 @@
       <c r="I43" s="7"/>
       <c r="L43" s="29"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -1417,14 +1425,14 @@
       <c r="F44" s="19"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -1432,7 +1440,7 @@
       <c r="F46" s="19"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
@@ -1441,7 +1449,7 @@
       <c r="I47" s="7"/>
       <c r="L47" s="19"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -1450,14 +1458,14 @@
       <c r="I48" s="7"/>
       <c r="L48" s="19"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
@@ -1466,7 +1474,7 @@
       <c r="I50" s="7"/>
       <c r="L50" s="29"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -1475,7 +1483,7 @@
       <c r="I51" s="7"/>
       <c r="L51" s="29"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
@@ -1483,7 +1491,7 @@
       <c r="F52" s="19"/>
       <c r="L52" s="19"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
@@ -1492,7 +1500,7 @@
       <c r="I53" s="7"/>
       <c r="L53" s="29"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
@@ -1501,7 +1509,7 @@
       <c r="I54" s="7"/>
       <c r="L54" s="29"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -1509,7 +1517,7 @@
       <c r="F55" s="19"/>
       <c r="L55" s="19"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -1518,7 +1526,7 @@
       <c r="I56" s="7"/>
       <c r="L56" s="19"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
@@ -1527,7 +1535,7 @@
       <c r="I57" s="7"/>
       <c r="L57" s="19"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
@@ -1535,7 +1543,7 @@
       <c r="F58" s="19"/>
       <c r="L58" s="19"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -1544,7 +1552,7 @@
       <c r="I59" s="7"/>
       <c r="L59" s="29"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -1553,14 +1561,14 @@
       <c r="I60" s="7"/>
       <c r="L60" s="29"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
       <c r="L61" s="19"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -1569,7 +1577,7 @@
       <c r="I62" s="7"/>
       <c r="L62" s="29"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -1578,7 +1586,7 @@
       <c r="I63" s="7"/>
       <c r="L63" s="29"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
@@ -1586,35 +1594,35 @@
       <c r="F64" s="19"/>
       <c r="L64" s="19"/>
     </row>
-    <row r="65" spans="3:12">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="L65" s="29"/>
     </row>
-    <row r="66" spans="3:12">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="L66" s="29"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
       <c r="L67" s="29"/>
     </row>
-    <row r="68" spans="3:12">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="L68" s="19"/>
     </row>
-    <row r="69" spans="3:12">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -1622,7 +1630,7 @@
       <c r="H69" s="6"/>
       <c r="L69" s="19"/>
     </row>
-    <row r="70" spans="3:12">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
@@ -1630,7 +1638,7 @@
       <c r="I70" s="7"/>
       <c r="L70" s="19"/>
     </row>
-    <row r="71" spans="3:12">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
@@ -1638,13 +1646,13 @@
       <c r="I71" s="7"/>
       <c r="L71" s="19"/>
     </row>
-    <row r="72" spans="3:12">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
     </row>
-    <row r="73" spans="3:12">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
@@ -1657,991 +1665,991 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:12">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="3:12">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
     </row>
-    <row r="76" spans="3:12">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
     </row>
-    <row r="77" spans="3:12">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
     </row>
-    <row r="78" spans="3:12">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
     </row>
-    <row r="79" spans="3:12">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
     </row>
-    <row r="80" spans="3:12">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
     </row>
-    <row r="81" spans="3:6">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
     </row>
-    <row r="82" spans="3:6">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
     </row>
-    <row r="83" spans="3:6">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
     </row>
-    <row r="84" spans="3:6">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
     </row>
-    <row r="85" spans="3:6">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
     </row>
-    <row r="86" spans="3:6">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
     </row>
-    <row r="87" spans="3:6">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
     </row>
-    <row r="88" spans="3:6">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
     </row>
-    <row r="89" spans="3:6">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
     </row>
-    <row r="90" spans="3:6">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
     </row>
-    <row r="91" spans="3:6">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
     </row>
-    <row r="92" spans="3:6">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
     </row>
-    <row r="93" spans="3:6">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
     </row>
-    <row r="94" spans="3:6">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
     </row>
-    <row r="95" spans="3:6">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
     </row>
-    <row r="96" spans="3:6">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
     </row>
-    <row r="97" spans="3:6">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
     </row>
-    <row r="98" spans="3:6">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" s="19"/>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
     </row>
-    <row r="99" spans="3:6">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C99" s="19"/>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" s="19"/>
     </row>
-    <row r="100" spans="3:6">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C100" s="19"/>
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
     </row>
-    <row r="101" spans="3:6">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
       <c r="F101" s="19"/>
     </row>
-    <row r="102" spans="3:6">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
     </row>
-    <row r="103" spans="3:6">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
     </row>
-    <row r="104" spans="3:6">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
     </row>
-    <row r="105" spans="3:6">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
     </row>
-    <row r="106" spans="3:6">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
       <c r="F106" s="19"/>
     </row>
-    <row r="107" spans="3:6">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" s="19"/>
     </row>
-    <row r="108" spans="3:6">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
     </row>
-    <row r="109" spans="3:6">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
       <c r="F109" s="19"/>
     </row>
-    <row r="110" spans="3:6">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
       <c r="F110" s="19"/>
     </row>
-    <row r="111" spans="3:6">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
       <c r="E111" s="19"/>
       <c r="F111" s="19"/>
     </row>
-    <row r="112" spans="3:6">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
     </row>
-    <row r="113" spans="3:6">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
     </row>
-    <row r="114" spans="3:6">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
     </row>
-    <row r="115" spans="3:6">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
     </row>
-    <row r="116" spans="3:6">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
     </row>
-    <row r="117" spans="3:6">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C117" s="19"/>
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
     </row>
-    <row r="118" spans="3:6">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C118" s="19"/>
       <c r="D118" s="19"/>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
     </row>
-    <row r="119" spans="3:6">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
     </row>
-    <row r="120" spans="3:6">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
     </row>
-    <row r="121" spans="3:6">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C121" s="19"/>
       <c r="D121" s="19"/>
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
     </row>
-    <row r="122" spans="3:6">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C122" s="19"/>
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
       <c r="F122" s="19"/>
     </row>
-    <row r="123" spans="3:6">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C123" s="19"/>
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
     </row>
-    <row r="124" spans="3:6">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
     </row>
-    <row r="125" spans="3:6">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
     </row>
-    <row r="126" spans="3:6">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
       <c r="F126" s="19"/>
     </row>
-    <row r="127" spans="3:6">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
     </row>
-    <row r="128" spans="3:6">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
     </row>
-    <row r="129" spans="3:6">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C129" s="19"/>
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
     </row>
-    <row r="130" spans="3:6">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C130" s="19"/>
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
     </row>
-    <row r="131" spans="3:6">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C131" s="19"/>
       <c r="D131" s="19"/>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
     </row>
-    <row r="132" spans="3:6">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
     </row>
-    <row r="133" spans="3:6">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
     </row>
-    <row r="134" spans="3:6">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
       <c r="F134" s="19"/>
     </row>
-    <row r="135" spans="3:6">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
     </row>
-    <row r="136" spans="3:6">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
       <c r="F136" s="19"/>
     </row>
-    <row r="137" spans="3:6">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
       <c r="E137" s="19"/>
       <c r="F137" s="19"/>
     </row>
-    <row r="138" spans="3:6">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
       <c r="E138" s="19"/>
       <c r="F138" s="19"/>
     </row>
-    <row r="139" spans="3:6">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
     </row>
-    <row r="140" spans="3:6">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C140" s="19"/>
       <c r="D140" s="19"/>
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
     </row>
-    <row r="141" spans="3:6">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
     </row>
-    <row r="142" spans="3:6">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
     </row>
-    <row r="143" spans="3:6">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
       <c r="F143" s="19"/>
     </row>
-    <row r="144" spans="3:6">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C144" s="19"/>
       <c r="D144" s="19"/>
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
     </row>
-    <row r="145" spans="3:6">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C145" s="19"/>
       <c r="D145" s="19"/>
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
     </row>
-    <row r="146" spans="3:6">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C146" s="19"/>
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
       <c r="F146" s="19"/>
     </row>
-    <row r="147" spans="3:6">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C147" s="19"/>
       <c r="D147" s="19"/>
       <c r="E147" s="19"/>
       <c r="F147" s="19"/>
     </row>
-    <row r="148" spans="3:6">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C148" s="19"/>
       <c r="D148" s="19"/>
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
     </row>
-    <row r="149" spans="3:6">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C149" s="19"/>
       <c r="D149" s="19"/>
       <c r="E149" s="19"/>
       <c r="F149" s="19"/>
     </row>
-    <row r="150" spans="3:6">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C150" s="19"/>
       <c r="D150" s="19"/>
       <c r="E150" s="19"/>
       <c r="F150" s="19"/>
     </row>
-    <row r="151" spans="3:6">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
     </row>
-    <row r="152" spans="3:6">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C152" s="19"/>
       <c r="D152" s="19"/>
       <c r="E152" s="19"/>
       <c r="F152" s="19"/>
     </row>
-    <row r="153" spans="3:6">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C153" s="19"/>
       <c r="D153" s="19"/>
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
     </row>
-    <row r="154" spans="3:6">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C154" s="19"/>
       <c r="D154" s="19"/>
       <c r="E154" s="19"/>
       <c r="F154" s="19"/>
     </row>
-    <row r="155" spans="3:6">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C155" s="19"/>
       <c r="D155" s="19"/>
       <c r="E155" s="19"/>
       <c r="F155" s="19"/>
     </row>
-    <row r="156" spans="3:6">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C156" s="19"/>
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
     </row>
-    <row r="157" spans="3:6">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C157" s="19"/>
       <c r="D157" s="19"/>
       <c r="E157" s="19"/>
       <c r="F157" s="19"/>
     </row>
-    <row r="158" spans="3:6">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
       <c r="E158" s="19"/>
       <c r="F158" s="19"/>
     </row>
-    <row r="159" spans="3:6">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C159" s="19"/>
       <c r="D159" s="19"/>
       <c r="E159" s="19"/>
       <c r="F159" s="19"/>
     </row>
-    <row r="160" spans="3:6">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C160" s="19"/>
       <c r="D160" s="19"/>
       <c r="E160" s="19"/>
       <c r="F160" s="19"/>
     </row>
-    <row r="161" spans="3:6">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C161" s="19"/>
       <c r="D161" s="19"/>
       <c r="E161" s="19"/>
       <c r="F161" s="19"/>
     </row>
-    <row r="162" spans="3:6">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C162" s="19"/>
       <c r="D162" s="19"/>
       <c r="E162" s="19"/>
       <c r="F162" s="19"/>
     </row>
-    <row r="163" spans="3:6">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C163" s="19"/>
       <c r="D163" s="19"/>
       <c r="E163" s="19"/>
       <c r="F163" s="19"/>
     </row>
-    <row r="164" spans="3:6">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C164" s="19"/>
       <c r="D164" s="19"/>
       <c r="E164" s="19"/>
       <c r="F164" s="19"/>
     </row>
-    <row r="165" spans="3:6">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C165" s="19"/>
       <c r="D165" s="19"/>
       <c r="E165" s="19"/>
       <c r="F165" s="19"/>
     </row>
-    <row r="166" spans="3:6">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C166" s="19"/>
       <c r="D166" s="19"/>
       <c r="E166" s="19"/>
       <c r="F166" s="19"/>
     </row>
-    <row r="167" spans="3:6">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C167" s="19"/>
       <c r="D167" s="19"/>
       <c r="E167" s="19"/>
       <c r="F167" s="19"/>
     </row>
-    <row r="168" spans="3:6">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C168" s="19"/>
       <c r="D168" s="19"/>
       <c r="E168" s="19"/>
       <c r="F168" s="19"/>
     </row>
-    <row r="169" spans="3:6">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C169" s="19"/>
       <c r="D169" s="19"/>
       <c r="E169" s="19"/>
       <c r="F169" s="19"/>
     </row>
-    <row r="170" spans="3:6">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C170" s="19"/>
       <c r="D170" s="19"/>
       <c r="E170" s="19"/>
       <c r="F170" s="19"/>
     </row>
-    <row r="171" spans="3:6">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C171" s="19"/>
       <c r="D171" s="19"/>
       <c r="E171" s="19"/>
       <c r="F171" s="19"/>
     </row>
-    <row r="172" spans="3:6">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C172" s="19"/>
       <c r="D172" s="19"/>
       <c r="E172" s="19"/>
       <c r="F172" s="19"/>
     </row>
-    <row r="173" spans="3:6">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C173" s="19"/>
       <c r="D173" s="19"/>
       <c r="E173" s="19"/>
       <c r="F173" s="19"/>
     </row>
-    <row r="174" spans="3:6">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C174" s="19"/>
       <c r="D174" s="19"/>
       <c r="E174" s="19"/>
       <c r="F174" s="19"/>
     </row>
-    <row r="175" spans="3:6">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C175" s="19"/>
       <c r="D175" s="19"/>
       <c r="E175" s="19"/>
       <c r="F175" s="19"/>
     </row>
-    <row r="176" spans="3:6">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C176" s="19"/>
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
       <c r="F176" s="19"/>
     </row>
-    <row r="177" spans="3:6">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C177" s="19"/>
       <c r="D177" s="19"/>
       <c r="E177" s="19"/>
       <c r="F177" s="19"/>
     </row>
-    <row r="178" spans="3:6">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C178" s="19"/>
       <c r="D178" s="19"/>
       <c r="E178" s="19"/>
       <c r="F178" s="19"/>
     </row>
-    <row r="179" spans="3:6">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C179" s="19"/>
       <c r="D179" s="19"/>
       <c r="E179" s="19"/>
       <c r="F179" s="19"/>
     </row>
-    <row r="180" spans="3:6">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C180" s="19"/>
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
       <c r="F180" s="19"/>
     </row>
-    <row r="181" spans="3:6">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C181" s="19"/>
       <c r="D181" s="19"/>
       <c r="E181" s="19"/>
       <c r="F181" s="19"/>
     </row>
-    <row r="182" spans="3:6">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C182" s="19"/>
       <c r="D182" s="19"/>
       <c r="E182" s="19"/>
       <c r="F182" s="19"/>
     </row>
-    <row r="183" spans="3:6">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C183" s="19"/>
       <c r="D183" s="19"/>
       <c r="E183" s="19"/>
       <c r="F183" s="19"/>
     </row>
-    <row r="184" spans="3:6">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C184" s="19"/>
       <c r="D184" s="19"/>
       <c r="E184" s="19"/>
       <c r="F184" s="19"/>
     </row>
-    <row r="185" spans="3:6">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C185" s="19"/>
       <c r="D185" s="19"/>
       <c r="E185" s="19"/>
       <c r="F185" s="19"/>
     </row>
-    <row r="186" spans="3:6">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C186" s="19"/>
       <c r="D186" s="19"/>
       <c r="E186" s="19"/>
       <c r="F186" s="19"/>
     </row>
-    <row r="187" spans="3:6">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C187" s="19"/>
       <c r="D187" s="19"/>
       <c r="E187" s="19"/>
       <c r="F187" s="19"/>
     </row>
-    <row r="188" spans="3:6">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C188" s="19"/>
       <c r="D188" s="19"/>
       <c r="E188" s="19"/>
       <c r="F188" s="19"/>
     </row>
-    <row r="189" spans="3:6">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C189" s="19"/>
       <c r="D189" s="19"/>
       <c r="E189" s="19"/>
       <c r="F189" s="19"/>
     </row>
-    <row r="190" spans="3:6">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C190" s="19"/>
       <c r="D190" s="19"/>
       <c r="E190" s="19"/>
       <c r="F190" s="19"/>
     </row>
-    <row r="191" spans="3:6">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C191" s="19"/>
       <c r="D191" s="19"/>
       <c r="E191" s="19"/>
       <c r="F191" s="19"/>
     </row>
-    <row r="192" spans="3:6">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C192" s="19"/>
       <c r="D192" s="19"/>
       <c r="E192" s="19"/>
       <c r="F192" s="19"/>
     </row>
-    <row r="193" spans="3:6">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C193" s="19"/>
       <c r="D193" s="19"/>
       <c r="E193" s="19"/>
       <c r="F193" s="19"/>
     </row>
-    <row r="194" spans="3:6">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C194" s="19"/>
       <c r="D194" s="19"/>
       <c r="E194" s="19"/>
       <c r="F194" s="19"/>
     </row>
-    <row r="195" spans="3:6">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C195" s="19"/>
       <c r="D195" s="19"/>
       <c r="E195" s="19"/>
       <c r="F195" s="19"/>
     </row>
-    <row r="196" spans="3:6">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C196" s="19"/>
       <c r="D196" s="19"/>
       <c r="E196" s="19"/>
       <c r="F196" s="19"/>
     </row>
-    <row r="197" spans="3:6">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C197" s="19"/>
       <c r="D197" s="19"/>
       <c r="E197" s="19"/>
       <c r="F197" s="19"/>
     </row>
-    <row r="198" spans="3:6">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C198" s="19"/>
       <c r="D198" s="19"/>
       <c r="E198" s="19"/>
       <c r="F198" s="19"/>
     </row>
-    <row r="199" spans="3:6">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C199" s="19"/>
       <c r="D199" s="19"/>
       <c r="E199" s="19"/>
       <c r="F199" s="19"/>
     </row>
-    <row r="200" spans="3:6">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C200" s="19"/>
       <c r="D200" s="19"/>
       <c r="E200" s="19"/>
       <c r="F200" s="19"/>
     </row>
-    <row r="201" spans="3:6">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C201" s="19"/>
       <c r="D201" s="19"/>
       <c r="E201" s="19"/>
       <c r="F201" s="19"/>
     </row>
-    <row r="202" spans="3:6">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C202" s="19"/>
       <c r="D202" s="19"/>
       <c r="E202" s="19"/>
       <c r="F202" s="19"/>
     </row>
-    <row r="203" spans="3:6">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C203" s="19"/>
       <c r="D203" s="19"/>
       <c r="E203" s="19"/>
       <c r="F203" s="19"/>
     </row>
-    <row r="204" spans="3:6">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C204" s="19"/>
       <c r="D204" s="19"/>
       <c r="E204" s="19"/>
       <c r="F204" s="19"/>
     </row>
-    <row r="205" spans="3:6">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C205" s="19"/>
       <c r="D205" s="19"/>
       <c r="E205" s="19"/>
       <c r="F205" s="19"/>
     </row>
-    <row r="206" spans="3:6">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C206" s="19"/>
       <c r="D206" s="19"/>
       <c r="E206" s="19"/>
       <c r="F206" s="19"/>
     </row>
-    <row r="207" spans="3:6">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C207" s="19"/>
       <c r="D207" s="19"/>
       <c r="E207" s="19"/>
       <c r="F207" s="19"/>
     </row>
-    <row r="208" spans="3:6">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C208" s="19"/>
       <c r="D208" s="19"/>
       <c r="E208" s="19"/>
       <c r="F208" s="19"/>
     </row>
-    <row r="209" spans="3:6">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C209" s="19"/>
       <c r="D209" s="19"/>
       <c r="E209" s="19"/>
       <c r="F209" s="19"/>
     </row>
-    <row r="210" spans="3:6">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C210" s="19"/>
       <c r="D210" s="19"/>
       <c r="E210" s="19"/>
       <c r="F210" s="19"/>
     </row>
-    <row r="211" spans="3:6">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C211" s="19"/>
       <c r="D211" s="19"/>
       <c r="E211" s="19"/>
       <c r="F211" s="19"/>
     </row>
-    <row r="212" spans="3:6">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C212" s="19"/>
       <c r="D212" s="19"/>
       <c r="E212" s="19"/>
       <c r="F212" s="19"/>
     </row>
-    <row r="213" spans="3:6">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C213" s="19"/>
       <c r="D213" s="19"/>
       <c r="E213" s="19"/>
       <c r="F213" s="19"/>
     </row>
-    <row r="214" spans="3:6">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C214" s="19"/>
       <c r="D214" s="19"/>
       <c r="E214" s="19"/>
       <c r="F214" s="19"/>
     </row>
-    <row r="215" spans="3:6">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C215" s="19"/>
       <c r="D215" s="19"/>
       <c r="E215" s="19"/>
       <c r="F215" s="19"/>
     </row>
-    <row r="216" spans="3:6">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C216" s="19"/>
       <c r="D216" s="19"/>
       <c r="E216" s="19"/>
       <c r="F216" s="19"/>
     </row>
-    <row r="217" spans="3:6">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C217" s="19"/>
       <c r="D217" s="19"/>
       <c r="E217" s="19"/>
       <c r="F217" s="19"/>
     </row>
-    <row r="218" spans="3:6">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C218" s="19"/>
       <c r="D218" s="19"/>
       <c r="E218" s="19"/>
       <c r="F218" s="19"/>
     </row>
-    <row r="219" spans="3:6">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C219" s="19"/>
       <c r="D219" s="19"/>
       <c r="E219" s="19"/>
       <c r="F219" s="19"/>
     </row>
-    <row r="220" spans="3:6">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C220" s="19"/>
       <c r="D220" s="19"/>
       <c r="E220" s="19"/>
       <c r="F220" s="19"/>
     </row>
-    <row r="221" spans="3:6">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C221" s="19"/>
       <c r="D221" s="19"/>
       <c r="E221" s="19"/>
       <c r="F221" s="19"/>
     </row>
-    <row r="222" spans="3:6">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C222" s="19"/>
       <c r="D222" s="19"/>
       <c r="E222" s="19"/>
       <c r="F222" s="19"/>
     </row>
-    <row r="223" spans="3:6">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C223" s="19"/>
       <c r="D223" s="19"/>
       <c r="E223" s="19"/>
       <c r="F223" s="19"/>
     </row>
-    <row r="224" spans="3:6">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C224" s="19"/>
       <c r="D224" s="19"/>
       <c r="E224" s="19"/>
       <c r="F224" s="19"/>
     </row>
-    <row r="225" spans="3:6">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C225" s="19"/>
       <c r="D225" s="19"/>
       <c r="E225" s="19"/>
       <c r="F225" s="19"/>
     </row>
-    <row r="226" spans="3:6">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C226" s="19"/>
       <c r="D226" s="19"/>
       <c r="E226" s="19"/>
       <c r="F226" s="19"/>
     </row>
-    <row r="227" spans="3:6">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C227" s="19"/>
       <c r="D227" s="19"/>
       <c r="E227" s="19"/>
       <c r="F227" s="19"/>
     </row>
-    <row r="228" spans="3:6">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C228" s="19"/>
       <c r="D228" s="19"/>
       <c r="E228" s="19"/>
       <c r="F228" s="19"/>
     </row>
-    <row r="229" spans="3:6">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C229" s="19"/>
       <c r="D229" s="19"/>
       <c r="E229" s="19"/>
       <c r="F229" s="19"/>
     </row>
-    <row r="230" spans="3:6">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C230" s="19"/>
       <c r="D230" s="19"/>
       <c r="E230" s="19"/>
       <c r="F230" s="19"/>
     </row>
-    <row r="231" spans="3:6">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C231" s="19"/>
       <c r="D231" s="19"/>
       <c r="E231" s="19"/>
       <c r="F231" s="19"/>
     </row>
-    <row r="232" spans="3:6">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C232" s="19"/>
       <c r="D232" s="19"/>
       <c r="E232" s="19"/>
       <c r="F232" s="19"/>
     </row>
-    <row r="233" spans="3:6">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C233" s="19"/>
       <c r="D233" s="19"/>
       <c r="E233" s="19"/>
       <c r="F233" s="19"/>
     </row>
-    <row r="234" spans="3:6">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C234" s="19"/>
       <c r="D234" s="19"/>
       <c r="E234" s="19"/>
       <c r="F234" s="19"/>
     </row>
-    <row r="235" spans="3:6">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C235" s="19"/>
       <c r="D235" s="19"/>
       <c r="E235" s="19"/>
       <c r="F235" s="19"/>
     </row>
-    <row r="236" spans="3:6">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C236" s="19"/>
       <c r="D236" s="19"/>
       <c r="E236" s="19"/>
       <c r="F236" s="19"/>
     </row>
-    <row r="237" spans="3:6">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C237" s="19"/>
       <c r="D237" s="19"/>
       <c r="E237" s="19"/>
       <c r="F237" s="19"/>
     </row>
-    <row r="1048573" spans="3:8">
+    <row r="1048573" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C1048573" s="14"/>
       <c r="H1048573" s="6">
         <v>41736</v>
